--- a/doc_new/1.需求-局内/0.基础设定/4.伤害系统.xlsx
+++ b/doc_new/1.需求-局内/0.基础设定/4.伤害系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="12270"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="伤害公式" sheetId="2" r:id="rId1"/>
@@ -62,13 +62,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>造成伤害1=</t>
     </r>
     <r>
@@ -89,7 +82,127 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*技能伤害*【1+伤害加成百分比】*（1+最终伤害百分比】*元素伤害百分比*技能增强百分比*远程或近战伤害增加百分比</t>
+      <t>*【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】*【1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百分比】*（1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百分比】*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元素伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百分比*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技能增强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百分比*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程或近战伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百分比</t>
     </r>
   </si>
   <si>
@@ -1271,7 +1384,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
